--- a/backend/excel_files/jee_admission_sheet.xlsx
+++ b/backend/excel_files/jee_admission_sheet.xlsx
@@ -443,8 +443,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="6" width="30.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="7" width="42.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="6" width="45.14785714285715" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="7" width="110.57642857142856" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18">
